--- a/Dokumentation/Userstories&Akzeptanz.xlsx
+++ b/Dokumentation/Userstories&Akzeptanz.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\API16a\ZZZPapierliS\426_mo\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\API16a\426 - Software agil entwicklen\Projekt_Besar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>Wer</t>
   </si>
@@ -292,6 +292,51 @@
   </si>
   <si>
     <t>Die Homepage muss online sein und aufrufbar.</t>
+  </si>
+  <si>
+    <t>Geburtstag der Autoren anzeigen</t>
+  </si>
+  <si>
+    <t>Lieblingszitate können geliked werden</t>
+  </si>
+  <si>
+    <t>Überblick der Anzahl Datensätze haben</t>
+  </si>
+  <si>
+    <t>Zusatzinformationen zu den Autoren liefern</t>
+  </si>
+  <si>
+    <t>Geliebte Zitate können nun "markiert" werden</t>
+  </si>
+  <si>
+    <t>Anzahl Zitate und Autoren einblenden</t>
+  </si>
+  <si>
+    <t>Der User ist auf der ufgeschalteten Homepage und sieht verschiedene Zitate
+und kann diese per Button Liken.</t>
+  </si>
+  <si>
+    <t>Der User ist auf der ufgeschalteten Homepage und sieht die derzeitige Anzahl 
+der Zitate und Autoren welche zur Verfügung stehen.</t>
+  </si>
+  <si>
+    <t>Der User ist auf der ufgeschalteten Homepage und sieht unter dem Zitat falls 
+der jeweilige Autor an dem Tag Geburtstag hat.</t>
+  </si>
+  <si>
+    <t>Auf der Zitate-Page</t>
+  </si>
+  <si>
+    <t>Kunde/Dritte</t>
+  </si>
+  <si>
+    <t>Datenpflege der Zitate</t>
+  </si>
+  <si>
+    <t>Ein Konto für die Sekretärin erstellen, welche die Zitatpage betreiben kann</t>
+  </si>
+  <si>
+    <t>Ein separates Konto für die Sekretärin welche die gleichen Rechte wie der Kunde besitzt.</t>
   </si>
 </sst>
 </file>
@@ -468,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,6 +549,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -788,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1049,15 +1097,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.85546875" bestFit="1" customWidth="1"/>
@@ -1184,14 +1232,14 @@
       <c r="C16" s="11"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1273,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1242,13 +1290,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1265,7 +1313,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1282,30 +1330,91 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>39</v>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
